--- a/xls/result.xlsx
+++ b/xls/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,43 +468,19 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.05061480603768%</t>
+          <t>0.012278190199481006%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.001304805749332224%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="n">
-        <v>150</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.38125749184745195%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.020440577884423182%</t>
+          <t>0.002331670158637985%</t>
         </is>
       </c>
     </row>
